--- a/Data/g19.7b.xlsx
+++ b/Data/g19.7b.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,7 +365,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Variável</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Valor</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Colocação</t>
         </is>
       </c>
     </row>
@@ -375,8 +385,18 @@
           <t>Amapá</t>
         </is>
       </c>
-      <c r="B2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Diferença 2021-2012</t>
+        </is>
+      </c>
+      <c r="C2">
         <v>43.69</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1º</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -385,8 +405,18 @@
           <t>Rio Grande do Norte</t>
         </is>
       </c>
-      <c r="B3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Diferença 2021-2012</t>
+        </is>
+      </c>
+      <c r="C3">
         <v>26.83</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2º</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -395,8 +425,18 @@
           <t>Pernambuco</t>
         </is>
       </c>
-      <c r="B4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Diferença 2021-2012</t>
+        </is>
+      </c>
+      <c r="C4">
         <v>19.45999999999999</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3º</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -405,8 +445,18 @@
           <t>Maranhão</t>
         </is>
       </c>
-      <c r="B5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Diferença 2021-2012</t>
+        </is>
+      </c>
+      <c r="C5">
         <v>18.15</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4º</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -415,8 +465,18 @@
           <t>Piauí</t>
         </is>
       </c>
-      <c r="B6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Diferença 2021-2012</t>
+        </is>
+      </c>
+      <c r="C6">
         <v>15.54</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5º</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -425,8 +485,18 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Diferença 2021-2012</t>
+        </is>
+      </c>
+      <c r="C7">
         <v>14.94</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6º</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -435,7 +505,12 @@
           <t>Nordeste</t>
         </is>
       </c>
-      <c r="B8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Diferença 2021-2012</t>
+        </is>
+      </c>
+      <c r="C8">
         <v>8.770000000000003</v>
       </c>
     </row>
@@ -445,7 +520,12 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Diferença 2021-2012</t>
+        </is>
+      </c>
+      <c r="C9">
         <v>-8.469999999999999</v>
       </c>
     </row>
